--- a/8mm基板.xlsx
+++ b/8mm基板.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DS1DPC2003M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\retrofit-8mm-movie-camera-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070035AB-652E-45FD-B461-684AD8E84F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697F670-3CFE-4D33-BB16-B72462EA0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="735" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{798D6E2D-C382-4AF1-971A-4BECAAC24D51}"/>
+    <workbookView xWindow="-135" yWindow="570" windowWidth="27420" windowHeight="15480" activeTab="3" xr2:uid="{798D6E2D-C382-4AF1-971A-4BECAAC24D51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="76">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -329,6 +322,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R9-LED-G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R10-LED-R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,7 +337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +356,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -570,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,14 +714,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,12 +1767,12 @@
       <c r="J16" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
       <c r="P16" t="s">
         <v>37</v>
       </c>
@@ -1764,12 +1787,12 @@
       <c r="J17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
       <c r="P17" t="s">
         <v>38</v>
       </c>
@@ -1785,12 +1808,12 @@
       <c r="J18" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
       <c r="P18" t="s">
         <v>39</v>
       </c>
@@ -1805,12 +1828,12 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="44">
         <v>220</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
       <c r="P19" t="s">
         <v>40</v>
       </c>
@@ -1825,12 +1848,12 @@
       <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
       <c r="P20" t="s">
         <v>41</v>
       </c>
@@ -1845,12 +1868,12 @@
       <c r="J21" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
       <c r="P21" t="s">
         <v>42</v>
       </c>
@@ -1865,12 +1888,12 @@
       <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>220</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
       <c r="P22" t="s">
         <v>43</v>
       </c>
@@ -1885,12 +1908,12 @@
       <c r="J23" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
       <c r="P23" t="s">
         <v>57</v>
       </c>
@@ -1902,12 +1925,12 @@
       <c r="J24" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="P24" t="s">
         <v>58</v>
       </c>
@@ -1919,12 +1942,12 @@
       <c r="J25" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
       <c r="P25" t="s">
         <v>61</v>
       </c>
@@ -1955,194 +1978,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C271AD-3903-499A-BC6A-A19BB0A70B06}">
-  <dimension ref="A1:A57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="44"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="44"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="44"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="44"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="44"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="44"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="44"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="44"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="44"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="44"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" s="44"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" s="44"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" s="44"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" s="44"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" s="44"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" s="44"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" s="44"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" s="44"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="44"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" s="44"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" s="44"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" s="44"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" s="44"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" s="44"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" s="44"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" s="44"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" s="44"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E88461-2D59-42B5-AC06-917871E74F04}">
   <dimension ref="G1:AI25"/>
   <sheetViews>
@@ -2812,12 +2647,12 @@
       <c r="J16" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
       <c r="P16" t="s">
         <v>37</v>
       </c>
@@ -2832,12 +2667,12 @@
       <c r="J17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
       <c r="P17" t="s">
         <v>38</v>
       </c>
@@ -2853,12 +2688,12 @@
       <c r="J18" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
       <c r="P18" t="s">
         <v>39</v>
       </c>
@@ -2873,12 +2708,12 @@
       <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="44">
         <v>220</v>
       </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
       <c r="P19" t="s">
         <v>40</v>
       </c>
@@ -2893,12 +2728,12 @@
       <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
       <c r="P20" t="s">
         <v>41</v>
       </c>
@@ -2913,12 +2748,12 @@
       <c r="J21" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
       <c r="P21" t="s">
         <v>42</v>
       </c>
@@ -2933,12 +2768,12 @@
       <c r="J22" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>220</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
       <c r="P22" t="s">
         <v>43</v>
       </c>
@@ -2953,12 +2788,12 @@
       <c r="J23" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
       <c r="P23" t="s">
         <v>57</v>
       </c>
@@ -2970,12 +2805,12 @@
       <c r="J24" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
       <c r="P24" t="s">
         <v>58</v>
       </c>
@@ -2987,12 +2822,12 @@
       <c r="J25" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
       <c r="P25" t="s">
         <v>61</v>
       </c>
@@ -3020,4 +2855,1072 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4CE6EB-1024-4BF7-9C93-AC6D59CD7CA3}">
+  <dimension ref="G1:AI25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="33">
+        <v>21</v>
+      </c>
+      <c r="K2" s="33">
+        <v>20</v>
+      </c>
+      <c r="L2" s="33">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="33">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="R3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="33">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="R5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="40"/>
+      <c r="T5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="R6" s="23">
+        <v>1</v>
+      </c>
+      <c r="S6" s="41"/>
+      <c r="T6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="23">
+        <v>4</v>
+      </c>
+      <c r="V6" s="24">
+        <v>4</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="13">
+        <v>1</v>
+      </c>
+      <c r="S7" s="14">
+        <v>2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>3</v>
+      </c>
+      <c r="U7" s="35">
+        <v>4</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="13">
+        <v>1</v>
+      </c>
+      <c r="S9" s="14">
+        <v>2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3">
+        <v>4</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="R10" s="22">
+        <v>1</v>
+      </c>
+      <c r="S10" s="39"/>
+      <c r="T10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="22">
+        <v>4</v>
+      </c>
+      <c r="V10" s="24">
+        <v>4</v>
+      </c>
+      <c r="W10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="21"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="R13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="20">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="19">
+        <v>21</v>
+      </c>
+      <c r="K14" s="33">
+        <v>20</v>
+      </c>
+      <c r="L14" s="18">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="19">
+        <v>18</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="7:35" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="10:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="10:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="10:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="44">
+        <v>220</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>49</v>
+      </c>
+      <c r="U21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="44">
+        <v>220</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="P23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="P24" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="10:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="P25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C271AD-3903-499A-BC6A-A19BB0A70B06}">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="42"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="43"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="43"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="43"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="43"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="43"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="43"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="43"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="43"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="43"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="43"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="43"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="43"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="43"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="43"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="43"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="43"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="43"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="43"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="43"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="43"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="43"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="43"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="43"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="43"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="43"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="43"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="43"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="43"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="43"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="43"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="43"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="43"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="43"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="43"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="43"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="43"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="43"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="43"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="43"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="43"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="43"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="43"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="43"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="43"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>